--- a/Data Results_test_09.xlsx
+++ b/Data Results_test_09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renato\CLionProjects\cp2020-2021_g26_45616_52360_52393\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3816880D-D40A-40EB-A9DA-73D5A61317E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF2657F-267F-47AC-ACAD-A30FF5F49823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{FE04AF36-4D43-4F52-8DE8-9BA373B3A9EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FE04AF36-4D43-4F52-8DE8-9BA373B3A9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="16 Positions" sheetId="2" r:id="rId1"/>
@@ -482,28 +482,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -549,6 +534,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECB3340-A37B-4887-BE35-D30BA3446E8B}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -878,43 +878,43 @@
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="16">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="17">
         <v>8.4500000000000005E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C4" s="4">
@@ -922,10 +922,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C5" s="4">
@@ -933,10 +933,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C6" s="4">
@@ -944,10 +944,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C7" s="4">
@@ -955,10 +955,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C8" s="4">
@@ -966,10 +966,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C9" s="4">
@@ -977,10 +977,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C10" s="4">
@@ -988,10 +988,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C11" s="4">
@@ -999,10 +999,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C12" s="4">
@@ -1010,10 +1010,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C13" s="4">
@@ -1021,10 +1021,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>6.0000000000000002E-6</v>
       </c>
       <c r="C14" s="4">
@@ -1032,10 +1032,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="C15" s="4">
@@ -1043,10 +1043,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="C16" s="4">
@@ -1054,10 +1054,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="C17" s="4">
@@ -1065,10 +1065,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>7.9999999999999996E-6</v>
       </c>
       <c r="C18" s="4">
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>1.2E-5</v>
       </c>
       <c r="C19" s="4">
@@ -1087,10 +1087,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>1.2E-5</v>
       </c>
       <c r="C20" s="4">
@@ -1098,10 +1098,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C21" s="4">
@@ -1109,10 +1109,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C22" s="4">
@@ -1120,10 +1120,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C23" s="4">
@@ -1131,10 +1131,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C24" s="4">
@@ -1142,10 +1142,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <v>1.2999999999999999E-5</v>
       </c>
       <c r="C25" s="4">
@@ -1153,10 +1153,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>1.4E-5</v>
       </c>
       <c r="C26" s="4">
@@ -1164,38 +1164,38 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="18">
         <v>1.4E-5</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="19">
         <v>1.3879999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="14">
         <f>AVERAGE(B3:B27)</f>
         <v>8.6799999999999948E-6</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="15">
         <f>AVERAGE(C3:C27)</f>
         <v>9.8736000000000006E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="29">
         <f>B28/C28</f>
         <v>8.7911197536865923E-3</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1210,46 +1210,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17376701-4190-46A3-8CC1-FDF3928D6CC3}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="27">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>8.5700000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -1260,7 +1261,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -1271,7 +1272,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -1282,7 +1283,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -1293,7 +1294,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -1304,7 +1305,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -1315,7 +1316,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -1326,7 +1327,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -1337,7 +1338,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -1348,7 +1349,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -1359,7 +1360,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -1370,7 +1371,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -1381,7 +1382,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -1392,7 +1393,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -1403,7 +1404,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -1414,7 +1415,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -1425,7 +1426,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -1436,7 +1437,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -1447,7 +1448,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -1458,7 +1459,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -1469,7 +1470,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
+      <c r="A24" s="23">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -1480,7 +1481,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
+      <c r="A25" s="23">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -1491,7 +1492,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
+      <c r="A26" s="23">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -1502,38 +1503,38 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29">
+      <c r="A27" s="24">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>1.8E-5</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="25">
         <v>1.3630000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="16">
         <f>AVERAGE(B3:B27)</f>
         <v>7.7199999999999972E-6</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="17">
         <f>AVERAGE(C3:C27)</f>
         <v>1.0470799999999997E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="29">
         <f>B28/C28</f>
         <v>7.3728845933453023E-3</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
